--- a/DateBase/orders/name001_2024-10-9.xlsx
+++ b/DateBase/orders/name001_2024-10-9.xlsx
@@ -446,7 +446,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="str">
-        <v>315_尤加利叶圆叶_Eucalyptus Populus_undefined_1bunch</v>
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-10-9.xlsx
+++ b/DateBase/orders/name001_2024-10-9.xlsx
@@ -448,6 +448,9 @@
       <c r="C2" t="str">
         <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="F2" t="str">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -508,8 +511,8 @@
       <c r="F2" t="str">
         <v>0.00</v>
       </c>
-      <c r="G2">
-        <v>0</v>
+      <c r="G2" t="str">
+        <v>010</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-10-9.xlsx
+++ b/DateBase/orders/name001_2024-10-9.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -452,9 +452,14 @@
         <v>10</v>
       </c>
     </row>
+    <row r="3">
+      <c r="C3" t="str">
+        <v>2_粉洋桔梗_Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L3"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -512,7 +517,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>010</v>
+        <v>0100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-10-9.xlsx
+++ b/DateBase/orders/name001_2024-10-9.xlsx
@@ -456,6 +456,9 @@
       <c r="C3" t="str">
         <v>2_粉洋桔梗_Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="F3" t="str">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -517,7 +520,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0100</v>
+        <v>01012</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-10-9.xlsx
+++ b/DateBase/orders/name001_2024-10-9.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -460,9 +460,14 @@
         <v>12</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L4"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -520,7 +525,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01012</v>
+        <v>010120</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-10-9.xlsx
+++ b/DateBase/orders/name001_2024-10-9.xlsx
@@ -464,6 +464,12 @@
       <c r="A4" t="str">
         <v>2</v>
       </c>
+      <c r="C4" t="str">
+        <v>8_冰淇淋洋桔梗_Icecream Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F4" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -525,7 +531,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>010120</v>
+        <v>010121</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-10-9.xlsx
+++ b/DateBase/orders/name001_2024-10-9.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -468,12 +468,17 @@
         <v>8_冰淇淋洋桔梗_Icecream Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
       <c r="F4" t="str">
-        <v>1</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" t="str">
+        <v>4_阳光粉洋桔梗_Sunshine Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L5"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -531,7 +536,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>010121</v>
+        <v>01012120</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-10-9.xlsx
+++ b/DateBase/orders/name001_2024-10-9.xlsx
@@ -475,6 +475,9 @@
       <c r="C5" t="str">
         <v>4_阳光粉洋桔梗_Sunshine Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="F5" t="str">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -536,7 +539,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01012120</v>
+        <v>010121211</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-10-9.xlsx
+++ b/DateBase/orders/name001_2024-10-9.xlsx
@@ -476,7 +476,7 @@
         <v>4_阳光粉洋桔梗_Sunshine Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
       <c r="F5" t="str">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -539,7 +539,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>010121211</v>
+        <v>010121212</v>
       </c>
     </row>
   </sheetData>
